--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Dropbox\Nisha\MIS at UIC\MIS\Fall 2019\AdvJava\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vartika\Git\Ecommerce-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB1688B-4407-487E-B552-63C1A88FDFDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F9F38F-2586-454D-804F-E6400C5CB3DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Rest API" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>EmailID</t>
   </si>
@@ -130,6 +131,84 @@
   </si>
   <si>
     <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>CreditCardNo</t>
+  </si>
+  <si>
+    <t>CreditCardType</t>
+  </si>
+  <si>
+    <t>ExpDate</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>DiscountRate</t>
+  </si>
+  <si>
+    <t>VendorId</t>
+  </si>
+  <si>
+    <t>SalesPrice</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Controllers</t>
+  </si>
+  <si>
+    <t>/products</t>
+  </si>
+  <si>
+    <t>Fetch all products from product table</t>
+  </si>
+  <si>
+    <t>/products?productId = &lt;&gt;</t>
+  </si>
+  <si>
+    <t>individual product info</t>
+  </si>
+  <si>
+    <t>/checkout</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>orderLink</t>
+  </si>
+  <si>
+    <t>/getOrderInfo</t>
+  </si>
+  <si>
+    <t>update Order table, Customer table and Inventory table and Sales table, send email with order confirmation</t>
+  </si>
+  <si>
+    <t>link for single order or all orders from customer</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>/getSales</t>
+  </si>
+  <si>
+    <t>/getInventory</t>
+  </si>
+  <si>
+    <t>/getOrders</t>
+  </si>
+  <si>
+    <t>/getEmployees</t>
   </si>
 </sst>
 </file>
@@ -173,9 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,168 +538,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A69E934-57ED-43DA-BD26-77303B9502D4}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vartika\Git\Ecommerce-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F9F38F-2586-454D-804F-E6400C5CB3DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A6F79-A877-4924-A582-9E51C8932636}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Model" sheetId="1" r:id="rId1"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A69E934-57ED-43DA-BD26-77303B9502D4}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vartika\Git\Ecommerce-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A6F79-A877-4924-A582-9E51C8932636}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED38F6-134B-47D8-A772-4163415979C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>EmailID</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Customer</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
   </si>
   <si>
     <t>City</t>
@@ -538,41 +535,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="B8:G8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -581,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -595,16 +592,13 @@
       <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -618,24 +612,24 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -646,23 +640,23 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -674,24 +668,24 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -699,18 +693,18 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -721,17 +715,17 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -740,16 +734,16 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -766,100 +760,100 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
